--- a/Container/Data/WaffenCustom.xlsx
+++ b/Container/Data/WaffenCustom.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963F4AC0-96FC-4A67-BDA6-BABCBC8F70C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAFBBC5-EB72-402C-A97C-EFECB64DC473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7170" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beispielwaffe" sheetId="1" r:id="rId1"/>
-    <sheet name="Stahlnase" sheetId="2" r:id="rId2"/>
+    <sheet name="DotVersuch" sheetId="3" r:id="rId2"/>
+    <sheet name="Stahlnase" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>Werte</t>
   </si>
@@ -83,6 +84,30 @@
   </si>
   <si>
     <t>Attribute</t>
+  </si>
+  <si>
+    <t>DoTTyp</t>
+  </si>
+  <si>
+    <t>Ladungen</t>
+  </si>
+  <si>
+    <t>DotSchaden</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>DotWahrscheinlichkeit</t>
+  </si>
+  <si>
+    <t>DotDauer</t>
+  </si>
+  <si>
+    <t>Nachladechance</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
 </sst>
 </file>
@@ -400,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A20" sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -469,7 +494,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -477,23 +502,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -501,7 +526,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -509,18 +534,66 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -529,11 +602,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C662B-55C8-41F7-AE8C-C211C522006E}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -599,7 +847,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -607,23 +855,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -631,7 +879,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -639,18 +887,66 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/WaffenCustom.xlsx
+++ b/Container/Data/WaffenCustom.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svalv\Dropbox\Lele\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAFBBC5-EB72-402C-A97C-EFECB64DC473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E5D564-B7D2-4799-BC7E-D9F0CF1EF118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7170" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beispielwaffe" sheetId="1" r:id="rId1"/>
     <sheet name="DotVersuch" sheetId="3" r:id="rId2"/>
     <sheet name="Stahlnase" sheetId="2" r:id="rId3"/>
+    <sheet name="Seelenbrandt" sheetId="4" r:id="rId4"/>
+    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId5"/>
+    <sheet name="AST" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="31">
   <si>
     <t>Werte</t>
   </si>
@@ -108,6 +120,18 @@
   </si>
   <si>
     <t>gift</t>
+  </si>
+  <si>
+    <t>Großschwert</t>
+  </si>
+  <si>
+    <t>klein</t>
+  </si>
+  <si>
+    <t>Knüppel</t>
+  </si>
+  <si>
+    <t>Brennen</t>
   </si>
 </sst>
 </file>
@@ -428,15 +452,15 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A1:B20"/>
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.15625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -444,7 +468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -452,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -460,7 +484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -468,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -476,7 +500,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -484,7 +508,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -492,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -500,7 +524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -508,7 +532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -516,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -524,7 +548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -532,7 +556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -540,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -548,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -556,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -564,7 +588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -572,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -580,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -588,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -605,13 +629,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C662B-55C8-41F7-AE8C-C211C522006E}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -619,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -627,7 +651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -635,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -643,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -651,7 +675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -659,7 +683,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -667,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -675,7 +699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -683,7 +707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -691,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -699,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -707,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -715,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -723,7 +747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -731,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -739,7 +763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -747,7 +771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -755,7 +779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -763,7 +787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -784,12 +808,12 @@
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.578125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -797,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -805,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -813,7 +837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -821,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -829,7 +853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -837,7 +861,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -845,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -853,7 +877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -861,7 +885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -869,7 +893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -877,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -885,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -893,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -901,7 +925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -909,7 +933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -917,7 +941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -925,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -933,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -941,7 +965,532 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DF16B-7FCB-49F2-A76A-9D1A27F3CFF5}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398622D2-6100-45FA-82F2-9BC9E7C6A51D}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71AED8-DDD6-4D6C-BDBB-AB72DA8E5E1E}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>

--- a/Container/Data/WaffenCustom.xlsx
+++ b/Container/Data/WaffenCustom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E5D564-B7D2-4799-BC7E-D9F0CF1EF118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4A8D1-5774-4BB4-BD96-B36695EBE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beispielwaffe" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Seelenbrandt" sheetId="4" r:id="rId4"/>
     <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId5"/>
     <sheet name="AST" sheetId="6" r:id="rId6"/>
+    <sheet name="Feuerhand" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="35">
   <si>
     <t>Werte</t>
   </si>
@@ -132,6 +133,18 @@
   </si>
   <si>
     <t>Brennen</t>
+  </si>
+  <si>
+    <t>Feuerball</t>
+  </si>
+  <si>
+    <t>Wurfgeschoss</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>Wurfwert</t>
   </si>
 </sst>
 </file>
@@ -449,18 +462,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -468,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -476,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -484,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -492,7 +505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -500,7 +513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -508,7 +521,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -516,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -524,7 +537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -532,7 +545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -540,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -548,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -556,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -564,59 +577,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
@@ -627,15 +648,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C662B-55C8-41F7-AE8C-C211C522006E}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -643,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -651,7 +675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -659,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -667,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -675,7 +699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -683,7 +707,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -691,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -699,7 +723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -707,7 +731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -715,7 +739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -723,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -731,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -739,59 +763,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>21</v>
       </c>
       <c r="B18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>4</v>
       </c>
     </row>
@@ -802,18 +834,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -821,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -829,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -837,7 +869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -845,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -853,7 +885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -861,7 +893,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -869,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -877,7 +909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -885,7 +917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -893,7 +925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -901,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -909,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -917,59 +949,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
@@ -980,15 +1020,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DF16B-7FCB-49F2-A76A-9D1A27F3CFF5}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -996,7 +1036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1004,7 +1044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1012,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1020,7 +1060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1068,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1036,7 +1076,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1044,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1052,7 +1092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1068,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1092,59 +1132,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
@@ -1155,15 +1203,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398622D2-6100-45FA-82F2-9BC9E7C6A51D}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1227,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1195,7 +1243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1259,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1227,7 +1275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1235,7 +1283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1299,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1259,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1267,59 +1315,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
@@ -1330,15 +1386,198 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71AED8-DDD6-4D6C-BDBB-AB72DA8E5E1E}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A300C0-B3C3-4153-9C78-A5B585BFE8A7}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1346,47 +1585,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1402,15 +1641,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1418,15 +1657,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1434,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1442,60 +1681,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <v>0</v>
+      <c r="B21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/WaffenCustom.xlsx
+++ b/Container/Data/WaffenCustom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB4A8D1-5774-4BB4-BD96-B36695EBE850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E2F823-136D-488C-8A80-0A222A067F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,8 @@
     <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId5"/>
     <sheet name="AST" sheetId="6" r:id="rId6"/>
     <sheet name="Feuerhand" sheetId="7" r:id="rId7"/>
+    <sheet name="Froschzunge" sheetId="9" r:id="rId8"/>
+    <sheet name="Schnabel" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="39">
   <si>
     <t>Werte</t>
   </si>
@@ -138,13 +140,25 @@
     <t>Feuerball</t>
   </si>
   <si>
-    <t>Wurfgeschoss</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
     <t>Wurfwert</t>
+  </si>
+  <si>
+    <t>Körperteil</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Zunge</t>
+  </si>
+  <si>
+    <t>Schnabel</t>
+  </si>
+  <si>
+    <t>Fernwaffe</t>
+  </si>
+  <si>
+    <t>brennen</t>
   </si>
 </sst>
 </file>
@@ -579,7 +593,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>0.2</v>
@@ -651,7 +665,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +779,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>0.2</v>
@@ -951,7 +965,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>0.2</v>
@@ -1134,7 +1148,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>0.2</v>
@@ -1317,7 +1331,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>0.4</v>
@@ -1500,7 +1514,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>0.3</v>
@@ -1572,7 +1586,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1628,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1683,10 +1697,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +1724,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,6 +1757,378 @@
       </c>
       <c r="B21">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7630E5-09F6-47BA-B44D-258878F5A7ED}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/WaffenCustom.xlsx
+++ b/Container/Data/WaffenCustom.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E2F823-136D-488C-8A80-0A222A067F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D593426-A703-4196-B97E-0E42202BCCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Beispielwaffe" sheetId="1" r:id="rId1"/>
-    <sheet name="DotVersuch" sheetId="3" r:id="rId2"/>
-    <sheet name="Stahlnase" sheetId="2" r:id="rId3"/>
-    <sheet name="Seelenbrandt" sheetId="4" r:id="rId4"/>
-    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId5"/>
-    <sheet name="AST" sheetId="6" r:id="rId6"/>
-    <sheet name="Feuerhand" sheetId="7" r:id="rId7"/>
-    <sheet name="Froschzunge" sheetId="9" r:id="rId8"/>
-    <sheet name="Schnabel" sheetId="10" r:id="rId9"/>
+    <sheet name="Dudelsack" sheetId="18" r:id="rId1"/>
+    <sheet name="Trommel" sheetId="17" r:id="rId2"/>
+    <sheet name="Laute" sheetId="16" r:id="rId3"/>
+    <sheet name="Beispielwaffe" sheetId="1" r:id="rId4"/>
+    <sheet name="DotVersuch" sheetId="3" r:id="rId5"/>
+    <sheet name="Stahlnase" sheetId="2" r:id="rId6"/>
+    <sheet name="Seelenbrandt" sheetId="4" r:id="rId7"/>
+    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId8"/>
+    <sheet name="AST" sheetId="6" r:id="rId9"/>
+    <sheet name="Feuerhand" sheetId="7" r:id="rId10"/>
+    <sheet name="Froschzunge" sheetId="9" r:id="rId11"/>
+    <sheet name="Schnabel" sheetId="10" r:id="rId12"/>
+    <sheet name="Schwur" sheetId="12" r:id="rId13"/>
+    <sheet name="Erbentöter" sheetId="13" r:id="rId14"/>
+    <sheet name="Verraetersende" sheetId="14" r:id="rId15"/>
+    <sheet name="Giftbiss" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="49">
   <si>
     <t>Werte</t>
   </si>
@@ -159,6 +166,36 @@
   </si>
   <si>
     <t>brennen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>Armbrust</t>
+  </si>
+  <si>
+    <t>Dolch</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Biss</t>
+  </si>
+  <si>
+    <t>Laute</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Trommel</t>
+  </si>
+  <si>
+    <t>Dudelsack</t>
+  </si>
+  <si>
+    <t>Groß</t>
   </si>
 </sst>
 </file>
@@ -475,19 +512,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64720462-8D1F-4DE8-9C5C-4F859004B265}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -495,47 +532,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -543,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -551,7 +588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -559,7 +596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -567,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -575,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -583,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -591,15 +628,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -607,7 +644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -615,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -623,7 +660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -631,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -639,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -647,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -660,7 +697,1855 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A300C0-B3C3-4153-9C78-A5B585BFE8A7}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="17.234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7630E5-09F6-47BA-B44D-258878F5A7ED}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="A1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="18.52734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA464286-EBB9-42CB-92AF-99DBB7213220}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F6B749-C2E6-424B-B50B-3D6E68F95F46}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD5A240-05EE-476B-90A1-43616C5C1FD2}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734603A-8896-4DC8-95FC-7ABFE53B20F3}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA5D63-CF23-46F1-B5E7-44C754F57F8F}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEEC44D-BC5F-487F-937F-771F48973BE1}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C662B-55C8-41F7-AE8C-C211C522006E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -668,12 +2553,12 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -681,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -689,7 +2574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -697,7 +2582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -705,7 +2590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -713,7 +2598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -721,7 +2606,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -729,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -737,7 +2622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -745,7 +2630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -753,7 +2638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -761,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -769,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -777,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -785,7 +2670,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -793,7 +2678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -801,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -809,7 +2694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -817,7 +2702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -825,7 +2710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -833,7 +2718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -846,20 +2731,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -867,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -875,7 +2760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -883,7 +2768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -891,7 +2776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -899,7 +2784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -907,7 +2792,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -915,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -923,7 +2808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -931,7 +2816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -939,7 +2824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -947,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -955,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -963,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -971,7 +2856,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -979,7 +2864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -987,7 +2872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -995,7 +2880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1003,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1011,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1032,7 +2917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DF16B-7FCB-49F2-A76A-9D1A27F3CFF5}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1040,9 +2925,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1058,7 +2943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +2959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +2967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +2975,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1106,7 +2991,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +2999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +3007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1130,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1154,7 +3039,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1162,7 +3047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +3055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +3063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1194,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1215,7 +3100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398622D2-6100-45FA-82F2-9BC9E7C6A51D}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1223,9 +3108,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1241,7 +3126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1249,7 +3134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1257,7 +3142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +3150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +3158,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1289,7 +3174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1297,7 +3182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1305,7 +3190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +3198,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1337,7 +3222,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +3230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1353,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1361,7 +3246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1369,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1377,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1385,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1398,7 +3283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71AED8-DDD6-4D6C-BDBB-AB72DA8E5E1E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1406,9 +3291,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1424,7 +3309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1432,7 +3317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +3325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +3333,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1456,7 +3341,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1464,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1472,7 +3357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1480,7 +3365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1488,7 +3373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1496,7 +3381,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1504,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1512,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1520,7 +3405,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1528,7 +3413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1536,7 +3421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1544,7 +3429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1552,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1568,562 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A300C0-B3C3-4153-9C78-A5B585BFE8A7}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7630E5-09F6-47BA-B44D-258878F5A7ED}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>

--- a/Container/Data/WaffenCustom.xlsx
+++ b/Container/Data/WaffenCustom.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D593426-A703-4196-B97E-0E42202BCCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FCD9E-C473-4489-988A-8FF1C4978591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dudelsack" sheetId="18" r:id="rId1"/>
-    <sheet name="Trommel" sheetId="17" r:id="rId2"/>
-    <sheet name="Laute" sheetId="16" r:id="rId3"/>
-    <sheet name="Beispielwaffe" sheetId="1" r:id="rId4"/>
-    <sheet name="DotVersuch" sheetId="3" r:id="rId5"/>
-    <sheet name="Stahlnase" sheetId="2" r:id="rId6"/>
-    <sheet name="Seelenbrandt" sheetId="4" r:id="rId7"/>
-    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId8"/>
-    <sheet name="AST" sheetId="6" r:id="rId9"/>
-    <sheet name="Feuerhand" sheetId="7" r:id="rId10"/>
-    <sheet name="Froschzunge" sheetId="9" r:id="rId11"/>
-    <sheet name="Schnabel" sheetId="10" r:id="rId12"/>
-    <sheet name="Schwur" sheetId="12" r:id="rId13"/>
-    <sheet name="Erbentöter" sheetId="13" r:id="rId14"/>
-    <sheet name="Verraetersende" sheetId="14" r:id="rId15"/>
-    <sheet name="Giftbiss" sheetId="15" r:id="rId16"/>
+    <sheet name="Trompete" sheetId="19" r:id="rId1"/>
+    <sheet name="Dudelsack" sheetId="18" r:id="rId2"/>
+    <sheet name="Trommel" sheetId="17" r:id="rId3"/>
+    <sheet name="Laute" sheetId="16" r:id="rId4"/>
+    <sheet name="Beispielwaffe" sheetId="1" r:id="rId5"/>
+    <sheet name="DotVersuch" sheetId="3" r:id="rId6"/>
+    <sheet name="Stahlnase" sheetId="2" r:id="rId7"/>
+    <sheet name="Seelenbrandt" sheetId="4" r:id="rId8"/>
+    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId9"/>
+    <sheet name="AST" sheetId="6" r:id="rId10"/>
+    <sheet name="Feuerhand" sheetId="7" r:id="rId11"/>
+    <sheet name="Froschzunge" sheetId="9" r:id="rId12"/>
+    <sheet name="Schnabel" sheetId="10" r:id="rId13"/>
+    <sheet name="Schwur" sheetId="12" r:id="rId14"/>
+    <sheet name="Erbentöter" sheetId="13" r:id="rId15"/>
+    <sheet name="Verraetersende" sheetId="14" r:id="rId16"/>
+    <sheet name="Giftbiss" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="49">
   <si>
     <t>Werte</t>
   </si>
@@ -512,19 +513,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64720462-8D1F-4DE8-9C5C-4F859004B265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B843EF-3A8F-4FE9-BB84-06C15F548846}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -532,15 +533,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -548,31 +549,31 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -580,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -588,7 +589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -596,7 +597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -604,7 +605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -612,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -620,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -628,15 +629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -644,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -652,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -660,7 +661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -668,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -676,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -684,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -698,6 +699,189 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71AED8-DDD6-4D6C-BDBB-AB72DA8E5E1E}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A300C0-B3C3-4153-9C78-A5B585BFE8A7}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -705,12 +889,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -718,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -726,7 +910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -734,7 +918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -742,7 +926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -750,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -758,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -766,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -774,7 +958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -782,7 +966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -790,7 +974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -798,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -806,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -814,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -822,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -830,7 +1014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -838,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -846,7 +1030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -854,7 +1038,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -862,7 +1046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -870,7 +1054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -883,7 +1067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7630E5-09F6-47BA-B44D-258878F5A7ED}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -891,12 +1075,12 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -904,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -912,7 +1096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -920,7 +1104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -928,7 +1112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -936,7 +1120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -944,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -952,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -960,7 +1144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -968,7 +1152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -976,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -984,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -992,7 +1176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1000,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1008,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1016,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1024,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +1216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1040,7 +1224,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1069,7 +1253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1077,12 +1261,12 @@
       <selection activeCell="B21" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.52734375" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1090,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1282,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1138,7 +1322,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1154,7 +1338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1170,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1194,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1218,7 +1402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1242,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA464286-EBB9-42CB-92AF-99DBB7213220}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1263,9 +1447,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1281,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1289,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1305,7 +1489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1497,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1329,7 +1513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1337,7 +1521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1345,7 +1529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1377,7 +1561,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1385,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1393,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1401,7 +1585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1409,7 +1593,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1417,7 +1601,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1425,7 +1609,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F6B749-C2E6-424B-B50B-3D6E68F95F46}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1446,9 +1630,9 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1456,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1464,7 +1648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +1664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1488,7 +1672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1496,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1512,7 +1696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1520,7 +1704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1536,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1544,7 +1728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1560,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1568,7 +1752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1584,7 +1768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1600,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1621,7 +1805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD5A240-05EE-476B-90A1-43616C5C1FD2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1629,9 +1813,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1639,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1655,7 +1839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1663,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1679,7 +1863,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1719,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1727,7 +1911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1735,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1743,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1759,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1767,7 +1951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +1959,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1783,7 +1967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1791,7 +1975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734603A-8896-4DC8-95FC-7ABFE53B20F3}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1812,9 +1996,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1822,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1830,7 +2014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1846,7 +2030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1854,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1870,7 +2054,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1878,7 +2062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1886,7 +2070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1894,7 +2078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1902,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1910,7 +2094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1926,7 +2110,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1942,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +2134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1958,7 +2142,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1966,7 +2150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1974,7 +2158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1988,6 +2172,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64720462-8D1F-4DE8-9C5C-4F859004B265}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA5D63-CF23-46F1-B5E7-44C754F57F8F}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1995,12 +2365,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2008,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2024,7 +2394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2040,7 +2410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2048,7 +2418,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2056,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2064,7 +2434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2072,7 +2442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2080,7 +2450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2088,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2096,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2104,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2112,7 +2482,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +2506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2152,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2160,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2173,7 +2543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEEC44D-BC5F-487F-937F-771F48973BE1}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2181,12 +2551,12 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2194,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2202,7 +2572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2210,7 +2580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2226,7 +2596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2234,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2242,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2250,7 +2620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2258,7 +2628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2266,7 +2636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2274,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2282,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2290,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2298,7 +2668,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2306,7 +2676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +2692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2330,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2338,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2346,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2359,7 +2729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2367,12 +2737,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2380,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2412,7 +2782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2420,7 +2790,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2428,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2436,7 +2806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2444,7 +2814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2452,7 +2822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2460,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2468,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2476,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2484,7 +2854,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2492,7 +2862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2500,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2508,7 +2878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2516,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2524,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2532,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2545,7 +2915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C662B-55C8-41F7-AE8C-C211C522006E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2553,12 +2923,12 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1171875" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2566,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2582,7 +2952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2590,7 +2960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2598,7 +2968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2606,7 +2976,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2614,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2622,7 +2992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2630,7 +3000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2638,7 +3008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2646,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2654,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2662,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2670,7 +3040,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2678,7 +3048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2686,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2694,7 +3064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2702,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2710,7 +3080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2718,7 +3088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2731,7 +3101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2739,12 +3109,12 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.52734375" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2752,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2760,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2768,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2776,7 +3146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2784,7 +3154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2792,7 +3162,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2800,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2808,7 +3178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2816,7 +3186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2824,7 +3194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2832,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2840,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2856,7 +3226,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2864,7 +3234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2872,7 +3242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2880,7 +3250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2888,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2896,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2904,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2917,7 +3287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DF16B-7FCB-49F2-A76A-9D1A27F3CFF5}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2925,9 +3295,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2935,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2943,7 +3313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2951,7 +3321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2959,7 +3329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +3337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2975,7 +3345,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2983,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2991,7 +3361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2999,7 +3369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3007,7 +3377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3015,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3023,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3031,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3039,7 +3409,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3047,7 +3417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3063,7 +3433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3071,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3079,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3087,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3100,7 +3470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398622D2-6100-45FA-82F2-9BC9E7C6A51D}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -3108,9 +3478,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3118,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3126,7 +3496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3134,7 +3504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3142,7 +3512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3150,7 +3520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3158,7 +3528,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3166,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3174,7 +3544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3182,7 +3552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +3560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3198,7 +3568,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3206,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3214,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3222,7 +3592,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3230,7 +3600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3238,7 +3608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3246,7 +3616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3254,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3262,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3270,190 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71AED8-DDD6-4D6C-BDBB-AB72DA8E5E1E}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>

--- a/Container/Data/WaffenCustom.xlsx
+++ b/Container/Data/WaffenCustom.xlsx
@@ -8,28 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FCD9E-C473-4489-988A-8FF1C4978591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82936182-5C09-4B62-AFEC-320961F6769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trompete" sheetId="19" r:id="rId1"/>
     <sheet name="Dudelsack" sheetId="18" r:id="rId2"/>
     <sheet name="Trommel" sheetId="17" r:id="rId3"/>
-    <sheet name="Laute" sheetId="16" r:id="rId4"/>
-    <sheet name="Beispielwaffe" sheetId="1" r:id="rId5"/>
-    <sheet name="DotVersuch" sheetId="3" r:id="rId6"/>
-    <sheet name="Stahlnase" sheetId="2" r:id="rId7"/>
-    <sheet name="Seelenbrandt" sheetId="4" r:id="rId8"/>
-    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId9"/>
-    <sheet name="AST" sheetId="6" r:id="rId10"/>
-    <sheet name="Feuerhand" sheetId="7" r:id="rId11"/>
-    <sheet name="Froschzunge" sheetId="9" r:id="rId12"/>
-    <sheet name="Schnabel" sheetId="10" r:id="rId13"/>
-    <sheet name="Schwur" sheetId="12" r:id="rId14"/>
-    <sheet name="Erbentöter" sheetId="13" r:id="rId15"/>
-    <sheet name="Verraetersende" sheetId="14" r:id="rId16"/>
-    <sheet name="Giftbiss" sheetId="15" r:id="rId17"/>
+    <sheet name="Flöte" sheetId="20" r:id="rId4"/>
+    <sheet name="Horn" sheetId="21" r:id="rId5"/>
+    <sheet name="Geige" sheetId="22" r:id="rId6"/>
+    <sheet name="Laute" sheetId="16" r:id="rId7"/>
+    <sheet name="Beispielwaffe" sheetId="1" r:id="rId8"/>
+    <sheet name="DotVersuch" sheetId="3" r:id="rId9"/>
+    <sheet name="Stahlnase" sheetId="2" r:id="rId10"/>
+    <sheet name="Seelenbrandt" sheetId="4" r:id="rId11"/>
+    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId12"/>
+    <sheet name="AST" sheetId="6" r:id="rId13"/>
+    <sheet name="Feuerhand" sheetId="7" r:id="rId14"/>
+    <sheet name="Froschzunge" sheetId="9" r:id="rId15"/>
+    <sheet name="Schnabel" sheetId="10" r:id="rId16"/>
+    <sheet name="Schwur" sheetId="12" r:id="rId17"/>
+    <sheet name="Erbentöter" sheetId="13" r:id="rId18"/>
+    <sheet name="Verraetersende" sheetId="14" r:id="rId19"/>
+    <sheet name="Giftbiss" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="52">
   <si>
     <t>Werte</t>
   </si>
@@ -197,6 +200,15 @@
   </si>
   <si>
     <t>Groß</t>
+  </si>
+  <si>
+    <t>Flöte</t>
+  </si>
+  <si>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>Geige</t>
   </si>
 </sst>
 </file>
@@ -516,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B843EF-3A8F-4FE9-BB84-06C15F548846}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -699,6 +711,558 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DF16B-7FCB-49F2-A76A-9D1A27F3CFF5}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398622D2-6100-45FA-82F2-9BC9E7C6A51D}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71AED8-DDD6-4D6C-BDBB-AB72DA8E5E1E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -881,7 +1445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A300C0-B3C3-4153-9C78-A5B585BFE8A7}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1067,7 +1631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7630E5-09F6-47BA-B44D-258878F5A7ED}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1253,7 +1817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1439,7 +2003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA464286-EBB9-42CB-92AF-99DBB7213220}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1622,7 +2186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F6B749-C2E6-424B-B50B-3D6E68F95F46}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1805,7 +2369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD5A240-05EE-476B-90A1-43616C5C1FD2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1973,189 +2537,6 @@
       </c>
       <c r="B20">
         <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734603A-8896-4DC8-95FC-7ABFE53B20F3}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2357,6 +2738,189 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734603A-8896-4DC8-95FC-7ABFE53B20F3}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA5D63-CF23-46F1-B5E7-44C754F57F8F}">
   <dimension ref="A1:B21"/>
@@ -2544,6 +3108,564 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDD4AFC-78F2-476A-9D18-FF3D0E89E0CA}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6530AF1B-DEDA-49BC-A8B1-CDFFF045C3AA}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F89AFB9-FE3C-493B-BE82-58B5370138E8}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEEC44D-BC5F-487F-937F-771F48973BE1}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2729,12 +3851,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2915,7 +4037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C662B-55C8-41F7-AE8C-C211C522006E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -3099,556 +4221,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DF16B-7FCB-49F2-A76A-9D1A27F3CFF5}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398622D2-6100-45FA-82F2-9BC9E7C6A51D}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>